--- a/vuelos.xlsx
+++ b/vuelos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>type</t>
   </si>
@@ -67,15 +67,15 @@
     <t>price.grandTotal</t>
   </si>
   <si>
+    <t>price.additionalServices</t>
+  </si>
+  <si>
     <t>pricingOptions.fareType</t>
   </si>
   <si>
     <t>pricingOptions.includedCheckedBagsOnly</t>
   </si>
   <si>
-    <t>price.additionalServices</t>
-  </si>
-  <si>
     <t>flight-offer</t>
   </si>
   <si>
@@ -97,67 +97,58 @@
     <t>GDS</t>
   </si>
   <si>
-    <t>2024-01-15</t>
-  </si>
-  <si>
-    <t>[{'duration': 'PT9H10M', 'segments': [{'departure': {'iataCode': 'EZE', 'terminal': 'A', 'at': '2024-01-20T15:55:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-20T18:15:00'}, 'carrierCode': 'H2', 'number': '508', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT2H20M', 'id': '9', 'numberOfStops': 0, 'blacklistedInEU': False}, {'departure': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-20T21:10:00'}, 'arrival': {'iataCode': 'LIM', 'at': '2024-01-20T23:05:00'}, 'carrierCode': 'H2', 'number': '804', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT3H55M', 'id': '10', 'numberOfStops': 0, 'blacklistedInEU': False}]}, {'duration': 'PT12H', 'segments': [{'departure': {'iataCode': 'LIM', 'at': '2024-01-24T01:00:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-24T06:35:00'}, 'carrierCode': 'H2', 'number': '805', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT3H35M', 'id': '34', 'numberOfStops': 0, 'blacklistedInEU': False}, {'departure': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-24T13:00:00'}, 'arrival': {'iataCode': 'EZE', 'terminal': 'A', 'at': '2024-01-24T15:00:00'}, 'carrierCode': 'H2', 'number': '507', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT2H', 'id': '35', 'numberOfStops': 0, 'blacklistedInEU': False}]}]</t>
-  </si>
-  <si>
-    <t>[{'duration': 'PT10H40M', 'segments': [{'departure': {'iataCode': 'EZE', 'terminal': 'A', 'at': '2024-01-20T15:55:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-20T18:15:00'}, 'carrierCode': 'H2', 'number': '508', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT2H20M', 'id': '19', 'numberOfStops': 0, 'blacklistedInEU': False}, {'departure': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-20T22:45:00'}, 'arrival': {'iataCode': 'LIM', 'at': '2024-01-21T00:35:00'}, 'carrierCode': 'H2', 'number': '5802', 'aircraft': {'code': '320'}, 'duration': 'PT3H50M', 'id': '20', 'numberOfStops': 0, 'blacklistedInEU': False}]}, {'duration': 'PT12H', 'segments': [{'departure': {'iataCode': 'LIM', 'at': '2024-01-24T01:00:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-24T06:35:00'}, 'carrierCode': 'H2', 'number': '805', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT3H35M', 'id': '34', 'numberOfStops': 0, 'blacklistedInEU': False}, {'departure': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-24T13:00:00'}, 'arrival': {'iataCode': 'EZE', 'terminal': 'A', 'at': '2024-01-24T15:00:00'}, 'carrierCode': 'H2', 'number': '507', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT2H', 'id': '35', 'numberOfStops': 0, 'blacklistedInEU': False}]}]</t>
-  </si>
-  <si>
-    <t>[{'duration': 'PT17H20M', 'segments': [{'departure': {'iataCode': 'EZE', 'terminal': 'A', 'at': '2024-01-20T07:45:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-20T10:05:00'}, 'carrierCode': 'H2', 'number': '5576', 'aircraft': {'code': '320'}, 'duration': 'PT2H20M', 'id': '13', 'numberOfStops': 0, 'blacklistedInEU': False}, {'departure': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-20T21:10:00'}, 'arrival': {'iataCode': 'LIM', 'at': '2024-01-20T23:05:00'}, 'carrierCode': 'H2', 'number': '804', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT3H55M', 'id': '14', 'numberOfStops': 0, 'blacklistedInEU': False}]}, {'duration': 'PT12H', 'segments': [{'departure': {'iataCode': 'LIM', 'at': '2024-01-24T01:00:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-24T06:35:00'}, 'carrierCode': 'H2', 'number': '805', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT3H35M', 'id': '34', 'numberOfStops': 0, 'blacklistedInEU': False}, {'departure': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-24T13:00:00'}, 'arrival': {'iataCode': 'EZE', 'terminal': 'A', 'at': '2024-01-24T15:00:00'}, 'carrierCode': 'H2', 'number': '507', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT2H', 'id': '35', 'numberOfStops': 0, 'blacklistedInEU': False}]}]</t>
-  </si>
-  <si>
-    <t>[{'duration': 'PT17H55M', 'segments': [{'departure': {'iataCode': 'EZE', 'terminal': 'A', 'at': '2024-01-20T15:55:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-20T18:15:00'}, 'carrierCode': 'H2', 'number': '508', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT2H20M', 'id': '32', 'numberOfStops': 0, 'blacklistedInEU': False}, {'departure': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-21T05:55:00'}, 'arrival': {'iataCode': 'LIM', 'at': '2024-01-21T07:50:00'}, 'carrierCode': 'H2', 'number': '802', 'aircraft': {'code': '321'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT3H55M', 'id': '33', 'numberOfStops': 0, 'blacklistedInEU': False}]}, {'duration': 'PT12H', 'segments': [{'departure': {'iataCode': 'LIM', 'at': '2024-01-24T01:00:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-24T06:35:00'}, 'carrierCode': 'H2', 'number': '805', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT3H35M', 'id': '34', 'numberOfStops': 0, 'blacklistedInEU': False}, {'departure': {'iataCode': 'SCL', 'terminal': '0', 'at': '2024-01-24T13:00:00'}, 'arrival': {'iataCode': 'EZE', 'terminal': 'A', 'at': '2024-01-24T15:00:00'}, 'carrierCode': 'H2', 'number': '507', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'H2'}, 'duration': 'PT2H', 'id': '35', 'numberOfStops': 0, 'blacklistedInEU': False}]}]</t>
-  </si>
-  <si>
-    <t>[{'duration': 'PT5H', 'segments': [{'departure': {'iataCode': 'EZE', 'terminal': 'A', 'at': '2024-01-20T04:00:00'}, 'arrival': {'iataCode': 'LIM', 'at': '2024-01-20T07:00:00'}, 'carrierCode': 'LA', 'number': '2376', 'aircraft': {'code': '320'}, 'duration': 'PT5H', 'id': '1', 'numberOfStops': 0, 'blacklistedInEU': False}]}, {'duration': 'PT4H35M', 'segments': [{'departure': {'iataCode': 'LIM', 'at': '2024-01-24T12:05:00'}, 'arrival': {'iataCode': 'EZE', 'terminal': 'A', 'at': '2024-01-24T18:40:00'}, 'carrierCode': 'LA', 'number': '2369', 'aircraft': {'code': '320'}, 'duration': 'PT4H35M', 'id': '45', 'numberOfStops': 0, 'blacklistedInEU': False}]}]</t>
-  </si>
-  <si>
-    <t>['HR']</t>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>[{'duration': 'PT3H40M', 'segments': [{'departure': {'iataCode': 'SCL', 'terminal': '2', 'at': '2024-01-20T08:20:00'}, 'arrival': {'iataCode': 'LIM', 'at': '2024-01-20T10:00:00'}, 'carrierCode': 'LA', 'number': '534', 'aircraft': {'code': '788'}, 'operating': {'carrierCode': 'LA'}, 'duration': 'PT3H40M', 'id': '31', 'numberOfStops': 0, 'blacklistedInEU': False}]}, {'duration': 'PT3H30M', 'segments': [{'departure': {'iataCode': 'LIM', 'at': '2024-01-24T09:00:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '2', 'at': '2024-01-24T14:30:00'}, 'carrierCode': 'LA', 'number': '535', 'aircraft': {'code': '788'}, 'operating': {'carrierCode': 'LA'}, 'duration': 'PT3H30M', 'id': '98', 'numberOfStops': 0, 'blacklistedInEU': False}]}]</t>
+  </si>
+  <si>
+    <t>[{'duration': 'PT3H40M', 'segments': [{'departure': {'iataCode': 'SCL', 'terminal': '2', 'at': '2024-01-20T08:20:00'}, 'arrival': {'iataCode': 'LIM', 'at': '2024-01-20T10:00:00'}, 'carrierCode': 'LA', 'number': '534', 'aircraft': {'code': '788'}, 'operating': {'carrierCode': 'LA'}, 'duration': 'PT3H40M', 'id': '31', 'numberOfStops': 0, 'blacklistedInEU': False}]}, {'duration': 'PT3H40M', 'segments': [{'departure': {'iataCode': 'LIM', 'at': '2024-01-24T12:25:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '2', 'at': '2024-01-24T18:05:00'}, 'carrierCode': 'LA', 'number': '651', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'LA'}, 'duration': 'PT3H40M', 'id': '110', 'numberOfStops': 0, 'blacklistedInEU': False}]}]</t>
+  </si>
+  <si>
+    <t>[{'duration': 'PT3H40M', 'segments': [{'departure': {'iataCode': 'SCL', 'terminal': '2', 'at': '2024-01-20T08:20:00'}, 'arrival': {'iataCode': 'LIM', 'at': '2024-01-20T10:00:00'}, 'carrierCode': 'LA', 'number': '534', 'aircraft': {'code': '788'}, 'operating': {'carrierCode': 'LA'}, 'duration': 'PT3H40M', 'id': '31', 'numberOfStops': 0, 'blacklistedInEU': False}]}, {'duration': 'PT3H40M', 'segments': [{'departure': {'iataCode': 'LIM', 'at': '2024-01-24T17:45:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '2', 'at': '2024-01-24T23:25:00'}, 'carrierCode': 'LA', 'number': '521', 'aircraft': {'code': '320'}, 'operating': {'carrierCode': 'LA'}, 'duration': 'PT3H40M', 'id': '111', 'numberOfStops': 0, 'blacklistedInEU': False}]}]</t>
+  </si>
+  <si>
+    <t>[{'duration': 'PT3H55M', 'segments': [{'departure': {'iataCode': 'SCL', 'terminal': '2', 'at': '2024-01-20T05:05:00'}, 'arrival': {'iataCode': 'LIM', 'at': '2024-01-20T07:00:00'}, 'carrierCode': 'LA', 'number': '2370', 'aircraft': {'code': '320'}, 'duration': 'PT3H55M', 'id': '49', 'numberOfStops': 0, 'blacklistedInEU': False}]}, {'duration': 'PT3H30M', 'segments': [{'departure': {'iataCode': 'LIM', 'at': '2024-01-24T09:00:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '2', 'at': '2024-01-24T14:30:00'}, 'carrierCode': 'LA', 'number': '535', 'aircraft': {'code': '788'}, 'operating': {'carrierCode': 'LA'}, 'duration': 'PT3H30M', 'id': '98', 'numberOfStops': 0, 'blacklistedInEU': False}]}]</t>
+  </si>
+  <si>
+    <t>[{'duration': 'PT3H55M', 'segments': [{'departure': {'iataCode': 'SCL', 'terminal': '2', 'at': '2024-01-20T07:10:00'}, 'arrival': {'iataCode': 'LIM', 'at': '2024-01-20T09:05:00'}, 'carrierCode': 'LA', 'number': '2378', 'aircraft': {'code': '320'}, 'duration': 'PT3H55M', 'id': '51', 'numberOfStops': 0, 'blacklistedInEU': False}]}, {'duration': 'PT3H30M', 'segments': [{'departure': {'iataCode': 'LIM', 'at': '2024-01-24T09:00:00'}, 'arrival': {'iataCode': 'SCL', 'terminal': '2', 'at': '2024-01-24T14:30:00'}, 'carrierCode': 'LA', 'number': '535', 'aircraft': {'code': '788'}, 'operating': {'carrierCode': 'LA'}, 'duration': 'PT3H30M', 'id': '98', 'numberOfStops': 0, 'blacklistedInEU': False}]}]</t>
   </si>
   <si>
     <t>['LA']</t>
   </si>
   <si>
-    <t>[{'travelerId': '1', 'fareOption': 'STANDARD', 'travelerType': 'ADULT', 'price': {'currency': 'PEN', 'total': '2402.46', 'base': '1757.80'}, 'fareDetailsBySegment': [{'segmentId': '9', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '10', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '34', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '35', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}]}]</t>
-  </si>
-  <si>
-    <t>[{'travelerId': '1', 'fareOption': 'STANDARD', 'travelerType': 'ADULT', 'price': {'currency': 'PEN', 'total': '2402.46', 'base': '1757.80'}, 'fareDetailsBySegment': [{'segmentId': '19', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '20', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '34', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '35', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}]}]</t>
-  </si>
-  <si>
-    <t>[{'travelerId': '1', 'fareOption': 'STANDARD', 'travelerType': 'ADULT', 'price': {'currency': 'PEN', 'total': '2402.46', 'base': '1757.80'}, 'fareDetailsBySegment': [{'segmentId': '13', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '14', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '34', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '35', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}]}]</t>
-  </si>
-  <si>
-    <t>[{'travelerId': '1', 'fareOption': 'STANDARD', 'travelerType': 'ADULT', 'price': {'currency': 'PEN', 'total': '2402.46', 'base': '1757.80'}, 'fareDetailsBySegment': [{'segmentId': '32', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '33', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '34', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '35', 'cabin': 'ECONOMY', 'fareBasis': 'MZERO', 'brandedFare': 'ZO', 'brandedFareLabel': 'ZERO', 'class': 'M', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': '2DA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': '1RA MALETA IS', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'EQUIPAJE DE MANO', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'ASIENTO', 'isChargeable': True, 'amenityType': 'PRE_RESERVED_SEAT', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'STARPASS IS', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'NAME CHANGE', 'isChargeable': True, 'amenityType': 'TRAVEL_SERVICES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}]}]</t>
-  </si>
-  <si>
-    <t>[{'travelerId': '1', 'fareOption': 'STANDARD', 'travelerType': 'ADULT', 'price': {'currency': 'PEN', 'total': '2462.49', 'base': '1783.98'}, 'fareDetailsBySegment': [{'segmentId': '1', 'cabin': 'ECONOMY', 'fareBasis': 'NHEQPZ0I', 'brandedFare': 'QP', 'brandedFareLabel': 'BASIC', 'class': 'N', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': 'FIRST EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'SECOND EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'THIRD BAG 23KG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CARRY ON HAND BAGGAGE', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'BASIC SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'PREMIUM SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '45', 'cabin': 'ECONOMY', 'fareBasis': 'QHEQPZ6I', 'brandedFare': 'QP', 'brandedFareLabel': 'BASIC', 'class': 'Q', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': 'FIRST EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'SECOND EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'THIRD BAG 23KG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CARRY ON HAND BAGGAGE', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'BASIC SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'PREMIUM SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}]}]</t>
-  </si>
-  <si>
-    <t>PEN</t>
-  </si>
-  <si>
-    <t>2402.46</t>
-  </si>
-  <si>
-    <t>2462.49</t>
-  </si>
-  <si>
-    <t>1757.80</t>
-  </si>
-  <si>
-    <t>1783.98</t>
+    <t>[{'travelerId': '1', 'fareOption': 'STANDARD', 'travelerType': 'ADULT', 'price': {'currency': 'USD', 'total': '300.95', 'base': '206.00'}, 'fareDetailsBySegment': [{'segmentId': '31', 'cabin': 'ECONOMY', 'fareBasis': 'QHEQPZ0B', 'brandedFare': 'QP', 'brandedFareLabel': 'BASIC', 'class': 'Q', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': 'FIRST EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'SECOND EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'THIRD BAG 23KG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CARRY ON HAND BAGGAGE', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'BASIC SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'PREMIUM SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '98', 'cabin': 'ECONOMY', 'fareBasis': 'QHEQPZ0B', 'brandedFare': 'QP', 'brandedFareLabel': 'BASIC', 'class': 'Q', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': 'FIRST EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'SECOND EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'THIRD BAG 23KG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CARRY ON HAND BAGGAGE', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'BASIC SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'PREMIUM SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}]}]</t>
+  </si>
+  <si>
+    <t>[{'travelerId': '1', 'fareOption': 'STANDARD', 'travelerType': 'ADULT', 'price': {'currency': 'USD', 'total': '300.95', 'base': '206.00'}, 'fareDetailsBySegment': [{'segmentId': '31', 'cabin': 'ECONOMY', 'fareBasis': 'QHEQPZ0B', 'brandedFare': 'QP', 'brandedFareLabel': 'BASIC', 'class': 'Q', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': 'FIRST EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'SECOND EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'THIRD BAG 23KG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CARRY ON HAND BAGGAGE', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'BASIC SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'PREMIUM SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '110', 'cabin': 'ECONOMY', 'fareBasis': 'QHEQPZ0B', 'brandedFare': 'QP', 'brandedFareLabel': 'BASIC', 'class': 'Q', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': 'FIRST EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'SECOND EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'THIRD BAG 23KG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CARRY ON HAND BAGGAGE', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'BASIC SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'PREMIUM SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}]}]</t>
+  </si>
+  <si>
+    <t>[{'travelerId': '1', 'fareOption': 'STANDARD', 'travelerType': 'ADULT', 'price': {'currency': 'USD', 'total': '300.95', 'base': '206.00'}, 'fareDetailsBySegment': [{'segmentId': '31', 'cabin': 'ECONOMY', 'fareBasis': 'QHEQPZ0B', 'brandedFare': 'QP', 'brandedFareLabel': 'BASIC', 'class': 'Q', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': 'FIRST EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'SECOND EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'THIRD BAG 23KG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CARRY ON HAND BAGGAGE', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'BASIC SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'PREMIUM SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '111', 'cabin': 'ECONOMY', 'fareBasis': 'QHEQPZ0B', 'brandedFare': 'QP', 'brandedFareLabel': 'BASIC', 'class': 'Q', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': 'FIRST EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'SECOND EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'THIRD BAG 23KG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CARRY ON HAND BAGGAGE', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'BASIC SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'PREMIUM SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}]}]</t>
+  </si>
+  <si>
+    <t>[{'travelerId': '1', 'fareOption': 'STANDARD', 'travelerType': 'ADULT', 'price': {'currency': 'USD', 'total': '300.95', 'base': '206.00'}, 'fareDetailsBySegment': [{'segmentId': '49', 'cabin': 'ECONOMY', 'fareBasis': 'QHEQPZ0B', 'brandedFare': 'QP', 'brandedFareLabel': 'BASIC', 'class': 'Q', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': 'FIRST EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'SECOND EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'THIRD BAG 23KG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CARRY ON HAND BAGGAGE', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'BASIC SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'PREMIUM SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '98', 'cabin': 'ECONOMY', 'fareBasis': 'QHEQPZ0B', 'brandedFare': 'QP', 'brandedFareLabel': 'BASIC', 'class': 'Q', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': 'FIRST EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'SECOND EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'THIRD BAG 23KG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CARRY ON HAND BAGGAGE', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'BASIC SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'PREMIUM SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}]}]</t>
+  </si>
+  <si>
+    <t>[{'travelerId': '1', 'fareOption': 'STANDARD', 'travelerType': 'ADULT', 'price': {'currency': 'USD', 'total': '300.95', 'base': '206.00'}, 'fareDetailsBySegment': [{'segmentId': '51', 'cabin': 'ECONOMY', 'fareBasis': 'QHEQPZ0B', 'brandedFare': 'QP', 'brandedFareLabel': 'BASIC', 'class': 'Q', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': 'FIRST EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'SECOND EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'THIRD BAG 23KG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CARRY ON HAND BAGGAGE', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'BASIC SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'PREMIUM SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}, {'segmentId': '98', 'cabin': 'ECONOMY', 'fareBasis': 'QHEQPZ0B', 'brandedFare': 'QP', 'brandedFareLabel': 'BASIC', 'class': 'Q', 'includedCheckedBags': {'quantity': 0}, 'amenities': [{'description': 'FIRST EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'SECOND EXCESS BAG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'THIRD BAG 23KG', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CARRY ON HAND BAGGAGE', 'isChargeable': True, 'amenityType': 'BAGGAGE', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'BASIC SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'PREMIUM SEAT RESERVATION', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}, {'description': 'CHANGE BEFORE DEPARTURE', 'isChargeable': True, 'amenityType': 'BRANDED_FARES', 'amenityProvider': {'name': 'BrandedFare'}}]}]}]</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>300.95</t>
+  </si>
+  <si>
+    <t>206.00</t>
   </si>
   <si>
     <t>[{'amount': '0.00', 'type': 'SUPPLIER'}, {'amount': '0.00', 'type': 'TICKETING'}]</t>
   </si>
   <si>
+    <t>[{'amount': '87.20', 'type': 'CHECKED_BAGS'}]</t>
+  </si>
+  <si>
     <t>['PUBLISHED']</t>
-  </si>
-  <si>
-    <t>[{'amount': '326.13', 'type': 'CHECKED_BAGS'}]</t>
   </si>
 </sst>
 </file>
@@ -609,7 +600,7 @@
         <v>27</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
         <v>28</v>
@@ -618,27 +609,30 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" t="b">
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -668,7 +662,7 @@
         <v>27</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>29</v>
@@ -677,27 +671,30 @@
         <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
         <v>43</v>
       </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" t="b">
+      <c r="S3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -727,7 +724,7 @@
         <v>27</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
@@ -736,27 +733,30 @@
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
         <v>41</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
         <v>43</v>
       </c>
-      <c r="P4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" t="b">
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -786,7 +786,7 @@
         <v>27</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -795,27 +795,30 @@
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
         <v>41</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
         <v>43</v>
       </c>
-      <c r="P5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" t="b">
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -851,34 +854,34 @@
         <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
         <v>39</v>
       </c>
-      <c r="M6" t="s">
-        <v>40</v>
-      </c>
       <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
         <v>42</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" t="s">
         <v>44</v>
       </c>
-      <c r="P6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>47</v>
+      <c r="T6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
